--- a/excessmortality_metadataform.xlsx
+++ b/excessmortality_metadataform.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/proochista/Documents/excessmortalityforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE82C93-5091-CE4C-838F-19D3BBEDE337}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A970E3F1-BCB3-7249-8070-F04DA1EB2155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="119">
   <si>
     <t>type</t>
   </si>
@@ -375,6 +375,27 @@
   </si>
   <si>
     <t>Website for the organisation</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
   </si>
 </sst>
 </file>
@@ -835,7 +856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1511,10 +1532,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D2064"/>
+  <dimension ref="A1:D2071"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1529,7 +1550,7 @@
     <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1540,7 +1561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>78</v>
       </c>
@@ -1551,7 +1572,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>78</v>
       </c>
@@ -1562,7 +1583,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>78</v>
       </c>
@@ -1573,142 +1594,177 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B18" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B19" s="3">
         <v>2</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17">
-      <c r="A13" s="3" t="s">
+    <row r="20" spans="1:4" ht="17">
+      <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B20" s="3">
         <v>3</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B21" s="3">
         <v>4</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-    </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="B23"/>
+      <c r="C23"/>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4">
@@ -2527,82 +2583,89 @@
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
     </row>
-    <row r="161" spans="1:3">
+    <row r="160" spans="1:4">
+      <c r="A160" s="6"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
-    </row>
-    <row r="162" spans="1:3">
+      <c r="D161" s="6"/>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
-    </row>
-    <row r="163" spans="1:3">
+      <c r="D162" s="6"/>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
-    </row>
-    <row r="164" spans="1:3">
+      <c r="D163" s="6"/>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
-    </row>
-    <row r="165" spans="1:3">
+      <c r="D164" s="6"/>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
-    </row>
-    <row r="166" spans="1:3">
+      <c r="D165" s="6"/>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="6"/>
-      <c r="B167" s="6"/>
-      <c r="C167" s="6"/>
-    </row>
-    <row r="168" spans="1:3">
+      <c r="D166" s="6"/>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:4">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:4">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:4">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:4">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:4">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:4">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:4">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:4">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -4752,75 +4815,82 @@
       <c r="B605" s="6"/>
       <c r="C605" s="6"/>
     </row>
+    <row r="606" spans="1:3">
+      <c r="A606" s="6"/>
+      <c r="B606" s="6"/>
+      <c r="C606" s="6"/>
+    </row>
     <row r="607" spans="1:3">
-      <c r="B607"/>
-      <c r="C607"/>
+      <c r="A607" s="6"/>
+      <c r="B607" s="6"/>
+      <c r="C607" s="6"/>
     </row>
     <row r="608" spans="1:3">
-      <c r="B608"/>
-      <c r="C608"/>
-    </row>
-    <row r="609" spans="2:3">
-      <c r="B609"/>
-      <c r="C609"/>
-    </row>
-    <row r="610" spans="2:3">
-      <c r="B610"/>
-      <c r="C610"/>
-    </row>
-    <row r="611" spans="2:3">
-      <c r="B611"/>
-      <c r="C611"/>
-    </row>
-    <row r="612" spans="2:3">
-      <c r="B612"/>
-      <c r="C612"/>
-    </row>
-    <row r="613" spans="2:3">
-      <c r="B613"/>
-      <c r="C613"/>
-    </row>
-    <row r="614" spans="2:3">
+      <c r="A608" s="6"/>
+      <c r="B608" s="6"/>
+      <c r="C608" s="6"/>
+    </row>
+    <row r="609" spans="1:3">
+      <c r="A609" s="6"/>
+      <c r="B609" s="6"/>
+      <c r="C609" s="6"/>
+    </row>
+    <row r="610" spans="1:3">
+      <c r="A610" s="6"/>
+      <c r="B610" s="6"/>
+      <c r="C610" s="6"/>
+    </row>
+    <row r="611" spans="1:3">
+      <c r="A611" s="6"/>
+      <c r="B611" s="6"/>
+      <c r="C611" s="6"/>
+    </row>
+    <row r="612" spans="1:3">
+      <c r="A612" s="6"/>
+      <c r="B612" s="6"/>
+      <c r="C612" s="6"/>
+    </row>
+    <row r="614" spans="1:3">
       <c r="B614"/>
       <c r="C614"/>
     </row>
-    <row r="615" spans="2:3">
+    <row r="615" spans="1:3">
       <c r="B615"/>
       <c r="C615"/>
     </row>
-    <row r="616" spans="2:3">
+    <row r="616" spans="1:3">
       <c r="B616"/>
       <c r="C616"/>
     </row>
-    <row r="617" spans="2:3">
+    <row r="617" spans="1:3">
       <c r="B617"/>
       <c r="C617"/>
     </row>
-    <row r="618" spans="2:3">
+    <row r="618" spans="1:3">
       <c r="B618"/>
       <c r="C618"/>
     </row>
-    <row r="619" spans="2:3">
+    <row r="619" spans="1:3">
       <c r="B619"/>
       <c r="C619"/>
     </row>
-    <row r="620" spans="2:3">
+    <row r="620" spans="1:3">
       <c r="B620"/>
       <c r="C620"/>
     </row>
-    <row r="621" spans="2:3">
+    <row r="621" spans="1:3">
       <c r="B621"/>
       <c r="C621"/>
     </row>
-    <row r="622" spans="2:3">
+    <row r="622" spans="1:3">
       <c r="B622"/>
       <c r="C622"/>
     </row>
-    <row r="623" spans="2:3">
+    <row r="623" spans="1:3">
       <c r="B623"/>
       <c r="C623"/>
     </row>
-    <row r="624" spans="2:3">
+    <row r="624" spans="1:3">
       <c r="B624"/>
       <c r="C624"/>
     </row>
@@ -5227,37 +5297,30 @@
     <row r="725" spans="2:4">
       <c r="B725"/>
       <c r="C725"/>
-      <c r="D725" s="6"/>
     </row>
     <row r="726" spans="2:4">
       <c r="B726"/>
       <c r="C726"/>
-      <c r="D726" s="6"/>
     </row>
     <row r="727" spans="2:4">
       <c r="B727"/>
       <c r="C727"/>
-      <c r="D727" s="6"/>
     </row>
     <row r="728" spans="2:4">
       <c r="B728"/>
       <c r="C728"/>
-      <c r="D728" s="6"/>
     </row>
     <row r="729" spans="2:4">
       <c r="B729"/>
       <c r="C729"/>
-      <c r="D729" s="6"/>
     </row>
     <row r="730" spans="2:4">
       <c r="B730"/>
       <c r="C730"/>
-      <c r="D730" s="6"/>
     </row>
     <row r="731" spans="2:4">
       <c r="B731"/>
       <c r="C731"/>
-      <c r="D731" s="6"/>
     </row>
     <row r="732" spans="2:4">
       <c r="B732"/>
@@ -5302,30 +5365,37 @@
     <row r="740" spans="2:4">
       <c r="B740"/>
       <c r="C740"/>
+      <c r="D740" s="6"/>
     </row>
     <row r="741" spans="2:4">
       <c r="B741"/>
       <c r="C741"/>
+      <c r="D741" s="6"/>
     </row>
     <row r="742" spans="2:4">
       <c r="B742"/>
       <c r="C742"/>
+      <c r="D742" s="6"/>
     </row>
     <row r="743" spans="2:4">
       <c r="B743"/>
       <c r="C743"/>
+      <c r="D743" s="6"/>
     </row>
     <row r="744" spans="2:4">
       <c r="B744"/>
       <c r="C744"/>
+      <c r="D744" s="6"/>
     </row>
     <row r="745" spans="2:4">
       <c r="B745"/>
       <c r="C745"/>
+      <c r="D745" s="6"/>
     </row>
     <row r="746" spans="2:4">
       <c r="B746"/>
       <c r="C746"/>
+      <c r="D746" s="6"/>
     </row>
     <row r="747" spans="2:4">
       <c r="B747"/>
@@ -5731,6 +5801,10 @@
       <c r="B847"/>
       <c r="C847"/>
     </row>
+    <row r="848" spans="2:3">
+      <c r="B848"/>
+      <c r="C848"/>
+    </row>
     <row r="849" spans="2:3">
       <c r="B849"/>
       <c r="C849"/>
@@ -5755,10 +5829,6 @@
       <c r="B854"/>
       <c r="C854"/>
     </row>
-    <row r="855" spans="2:3">
-      <c r="B855"/>
-      <c r="C855"/>
-    </row>
     <row r="856" spans="2:3">
       <c r="B856"/>
       <c r="C856"/>
@@ -6206,37 +6276,30 @@
     <row r="967" spans="2:4">
       <c r="B967"/>
       <c r="C967"/>
-      <c r="D967" s="6"/>
     </row>
     <row r="968" spans="2:4">
       <c r="B968"/>
       <c r="C968"/>
-      <c r="D968" s="6"/>
     </row>
     <row r="969" spans="2:4">
       <c r="B969"/>
       <c r="C969"/>
-      <c r="D969" s="6"/>
     </row>
     <row r="970" spans="2:4">
       <c r="B970"/>
       <c r="C970"/>
-      <c r="D970" s="6"/>
     </row>
     <row r="971" spans="2:4">
       <c r="B971"/>
       <c r="C971"/>
-      <c r="D971" s="6"/>
     </row>
     <row r="972" spans="2:4">
       <c r="B972"/>
       <c r="C972"/>
-      <c r="D972" s="6"/>
     </row>
     <row r="973" spans="2:4">
       <c r="B973"/>
       <c r="C973"/>
-      <c r="D973" s="6"/>
     </row>
     <row r="974" spans="2:4">
       <c r="B974"/>
@@ -6281,30 +6344,37 @@
     <row r="982" spans="2:4">
       <c r="B982"/>
       <c r="C982"/>
+      <c r="D982" s="6"/>
     </row>
     <row r="983" spans="2:4">
       <c r="B983"/>
       <c r="C983"/>
+      <c r="D983" s="6"/>
     </row>
     <row r="984" spans="2:4">
       <c r="B984"/>
       <c r="C984"/>
+      <c r="D984" s="6"/>
     </row>
     <row r="985" spans="2:4">
       <c r="B985"/>
       <c r="C985"/>
+      <c r="D985" s="6"/>
     </row>
     <row r="986" spans="2:4">
       <c r="B986"/>
       <c r="C986"/>
+      <c r="D986" s="6"/>
     </row>
     <row r="987" spans="2:4">
       <c r="B987"/>
       <c r="C987"/>
+      <c r="D987" s="6"/>
     </row>
     <row r="988" spans="2:4">
       <c r="B988"/>
       <c r="C988"/>
+      <c r="D988" s="6"/>
     </row>
     <row r="989" spans="2:4">
       <c r="B989"/>
@@ -6710,70 +6780,98 @@
       <c r="B1089"/>
       <c r="C1089"/>
     </row>
-    <row r="1645" spans="3:3">
-      <c r="C1645" s="4"/>
-    </row>
-    <row r="1646" spans="3:3">
-      <c r="C1646" s="4"/>
-    </row>
-    <row r="1647" spans="3:3">
-      <c r="C1647" s="4"/>
-    </row>
-    <row r="1648" spans="3:3">
-      <c r="C1648" s="4"/>
-    </row>
-    <row r="1649" spans="3:3">
-      <c r="C1649" s="4"/>
-    </row>
-    <row r="1705" spans="1:3">
-      <c r="A1705" s="6"/>
-      <c r="B1705" s="6"/>
-      <c r="C1705" s="5"/>
-    </row>
-    <row r="1706" spans="1:3">
-      <c r="A1706" s="6"/>
-      <c r="B1706" s="6"/>
-      <c r="C1706" s="5"/>
-    </row>
-    <row r="1707" spans="1:3">
-      <c r="A1707" s="6"/>
-      <c r="B1707" s="6"/>
-      <c r="C1707" s="5"/>
-    </row>
-    <row r="1708" spans="1:3">
-      <c r="A1708" s="6"/>
-      <c r="B1708" s="6"/>
-      <c r="C1708" s="5"/>
-    </row>
-    <row r="1709" spans="1:3">
-      <c r="A1709" s="6"/>
-      <c r="B1709" s="6"/>
-      <c r="C1709" s="5"/>
-    </row>
-    <row r="2060" spans="1:3">
-      <c r="A2060" s="6"/>
-      <c r="B2060" s="6"/>
-      <c r="C2060" s="5"/>
-    </row>
-    <row r="2061" spans="1:3">
-      <c r="A2061" s="6"/>
-      <c r="B2061" s="6"/>
-      <c r="C2061" s="5"/>
-    </row>
-    <row r="2062" spans="1:3">
-      <c r="A2062" s="6"/>
-      <c r="B2062" s="6"/>
-      <c r="C2062" s="5"/>
-    </row>
-    <row r="2063" spans="1:3">
-      <c r="A2063" s="6"/>
-      <c r="B2063" s="6"/>
-      <c r="C2063" s="5"/>
-    </row>
-    <row r="2064" spans="1:3">
-      <c r="A2064" s="6"/>
-      <c r="B2064" s="6"/>
-      <c r="C2064" s="5"/>
+    <row r="1090" spans="2:3">
+      <c r="B1090"/>
+      <c r="C1090"/>
+    </row>
+    <row r="1091" spans="2:3">
+      <c r="B1091"/>
+      <c r="C1091"/>
+    </row>
+    <row r="1092" spans="2:3">
+      <c r="B1092"/>
+      <c r="C1092"/>
+    </row>
+    <row r="1093" spans="2:3">
+      <c r="B1093"/>
+      <c r="C1093"/>
+    </row>
+    <row r="1094" spans="2:3">
+      <c r="B1094"/>
+      <c r="C1094"/>
+    </row>
+    <row r="1095" spans="2:3">
+      <c r="B1095"/>
+      <c r="C1095"/>
+    </row>
+    <row r="1096" spans="2:3">
+      <c r="B1096"/>
+      <c r="C1096"/>
+    </row>
+    <row r="1652" spans="3:3">
+      <c r="C1652" s="4"/>
+    </row>
+    <row r="1653" spans="3:3">
+      <c r="C1653" s="4"/>
+    </row>
+    <row r="1654" spans="3:3">
+      <c r="C1654" s="4"/>
+    </row>
+    <row r="1655" spans="3:3">
+      <c r="C1655" s="4"/>
+    </row>
+    <row r="1656" spans="3:3">
+      <c r="C1656" s="4"/>
+    </row>
+    <row r="1712" spans="1:3">
+      <c r="A1712" s="6"/>
+      <c r="B1712" s="6"/>
+      <c r="C1712" s="5"/>
+    </row>
+    <row r="1713" spans="1:3">
+      <c r="A1713" s="6"/>
+      <c r="B1713" s="6"/>
+      <c r="C1713" s="5"/>
+    </row>
+    <row r="1714" spans="1:3">
+      <c r="A1714" s="6"/>
+      <c r="B1714" s="6"/>
+      <c r="C1714" s="5"/>
+    </row>
+    <row r="1715" spans="1:3">
+      <c r="A1715" s="6"/>
+      <c r="B1715" s="6"/>
+      <c r="C1715" s="5"/>
+    </row>
+    <row r="1716" spans="1:3">
+      <c r="A1716" s="6"/>
+      <c r="B1716" s="6"/>
+      <c r="C1716" s="5"/>
+    </row>
+    <row r="2067" spans="1:3">
+      <c r="A2067" s="6"/>
+      <c r="B2067" s="6"/>
+      <c r="C2067" s="5"/>
+    </row>
+    <row r="2068" spans="1:3">
+      <c r="A2068" s="6"/>
+      <c r="B2068" s="6"/>
+      <c r="C2068" s="5"/>
+    </row>
+    <row r="2069" spans="1:3">
+      <c r="A2069" s="6"/>
+      <c r="B2069" s="6"/>
+      <c r="C2069" s="5"/>
+    </row>
+    <row r="2070" spans="1:3">
+      <c r="A2070" s="6"/>
+      <c r="B2070" s="6"/>
+      <c r="C2070" s="5"/>
+    </row>
+    <row r="2071" spans="1:3">
+      <c r="A2071" s="6"/>
+      <c r="B2071" s="6"/>
+      <c r="C2071" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excessmortality_metadataform.xlsx
+++ b/excessmortality_metadataform.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/proochista/Documents/excessmortalityforms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/GitHub/excessmortalityforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A970E3F1-BCB3-7249-8070-F04DA1EB2155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCC804E-2C33-D647-BE74-CBF2983CC355}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="145">
   <si>
     <t>type</t>
   </si>
@@ -136,13 +136,6 @@
     <t>end group</t>
   </si>
   <si>
-    <t>**Hardcopy; printed** - report is in paper format
-**Electronic** - report is in an electronic document format such as PDF; DOC; DOCX; TXT; RTF
-**Website link/s** - report is available via a download link on the internet
-**Audio recording** - report is in an audio format such as WMA; WAV; MP3; AIFF
-**Other** - report is in another format not specified above</t>
-  </si>
-  <si>
     <t>acknowledge</t>
   </si>
   <si>
@@ -296,9 +289,6 @@
     <t>This form has been designed to collect metadata on available mortality data information.</t>
   </si>
   <si>
-    <t>intro_note</t>
-  </si>
-  <si>
     <t>introduction</t>
   </si>
   <si>
@@ -356,9 +346,6 @@
     <t>field-list</t>
   </si>
   <si>
-    <t>Scan the dataset using a scanning app on your smartphone or tablet  or through an external scanning device. Return to this form once scanning is completed.</t>
-  </si>
-  <si>
     <t>What is the name of the organisation?</t>
   </si>
   <si>
@@ -396,6 +383,96 @@
   </si>
   <si>
     <t>Indonesia</t>
+  </si>
+  <si>
+    <t>**Hardcopy; printed** - data is in paper format
+**Electronic** - data is in an electronic document format such as PDF; DOC; DOCX; TXT; RTF
+**Website link/s** - data is available via a download link on the internet
+**Other** - data is in another format not specified above</t>
+  </si>
+  <si>
+    <t>data_structure</t>
+  </si>
+  <si>
+    <t>Data structure</t>
+  </si>
+  <si>
+    <t>select_one structure</t>
+  </si>
+  <si>
+    <t>data_structure_description</t>
+  </si>
+  <si>
+    <t>Which of these best describes the data?</t>
+  </si>
+  <si>
+    <t>structure</t>
+  </si>
+  <si>
+    <t>Each row of the dataset is an individual case of death</t>
+  </si>
+  <si>
+    <t>Each row of the dataset is a count of cases of death</t>
+  </si>
+  <si>
+    <t>data_structure_description_other</t>
+  </si>
+  <si>
+    <t>Describe the data structure</t>
+  </si>
+  <si>
+    <t>data_time</t>
+  </si>
+  <si>
+    <t>Data time interval</t>
+  </si>
+  <si>
+    <t>select_one time</t>
+  </si>
+  <si>
+    <t>data_time_interval</t>
+  </si>
+  <si>
+    <t>Is the data disaggregated…</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>yearly</t>
+  </si>
+  <si>
+    <t>monthly</t>
+  </si>
+  <si>
+    <t>weekly</t>
+  </si>
+  <si>
+    <t>no date/temporal information</t>
+  </si>
+  <si>
+    <t>intro_note_1</t>
+  </si>
+  <si>
+    <t>intro_note_2</t>
+  </si>
+  <si>
+    <t>Please fill out one form for each dataset that you have found.</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>ccode</t>
+  </si>
+  <si>
+    <t>Enter your 3-digit contributor code</t>
+  </si>
+  <si>
+    <t>**Optional**</t>
+  </si>
+  <si>
+    <t>Scan a sample page of the dataset using a scanning app on your smartphone or tablet  or through an external scanning device. Return to this form once scanning is completed.</t>
   </si>
 </sst>
 </file>
@@ -435,7 +512,7 @@
       <name val="Menlo Regular"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,12 +531,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -474,7 +545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -506,12 +577,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -854,13 +919,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -899,7 +964,7 @@
         <v>14</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>15</v>
@@ -931,7 +996,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -940,7 +1005,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="10"/>
       <c r="I2" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -949,56 +1014,59 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
     </row>
-    <row r="3" spans="1:15" s="11" customFormat="1" ht="34">
+    <row r="3" spans="1:15" s="11" customFormat="1" ht="58" customHeight="1">
       <c r="A3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>84</v>
-      </c>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:15" s="11" customFormat="1">
-      <c r="A4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-    </row>
-    <row r="5" spans="1:15" s="11" customFormat="1">
-      <c r="H5" s="12"/>
+    <row r="4" spans="1:15" s="11" customFormat="1" ht="34">
+      <c r="A4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:15" s="11" customFormat="1" ht="17">
+      <c r="A5" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:15" s="11" customFormat="1">
       <c r="A6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>87</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -1006,35 +1074,25 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="1:15" s="11" customFormat="1" ht="34">
-      <c r="A7" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>24</v>
-      </c>
+    <row r="7" spans="1:15" s="11" customFormat="1">
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:15" s="11" customFormat="1">
       <c r="A8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="9"/>
+      <c r="I8" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -1042,26 +1100,35 @@
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
     </row>
-    <row r="9" spans="1:15" s="11" customFormat="1">
-      <c r="C9" s="12"/>
-      <c r="H9" s="12"/>
+    <row r="9" spans="1:15" s="11" customFormat="1" ht="34">
+      <c r="A9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:15" s="11" customFormat="1">
       <c r="A10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>66</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B10" s="9"/>
       <c r="C10" s="10"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -1069,135 +1136,149 @@
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
     </row>
-    <row r="11" spans="1:15" s="11" customFormat="1" ht="34">
-      <c r="A11" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="11" customFormat="1" ht="17">
-      <c r="A12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>67</v>
-      </c>
+    <row r="11" spans="1:15" s="11" customFormat="1">
+      <c r="C11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:15" s="11" customFormat="1">
+      <c r="A12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
     </row>
     <row r="13" spans="1:15" s="11" customFormat="1" ht="34">
       <c r="A13" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="H13" s="12"/>
+        <v>87</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:15" s="11" customFormat="1" ht="17">
       <c r="A14" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:15" s="11" customFormat="1" ht="17">
+        <v>103</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="11" customFormat="1" ht="34">
       <c r="A15" s="11" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" s="12"/>
+        <v>104</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="16" spans="1:15" s="11" customFormat="1" ht="17">
       <c r="A16" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="H16" s="12"/>
+        <v>105</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="17" spans="1:15" s="11" customFormat="1" ht="17">
       <c r="A17" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:15" s="11" customFormat="1">
-      <c r="A18" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="17">
+      <c r="A18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="17">
+      <c r="A19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="11" customFormat="1">
+      <c r="A20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-    </row>
-    <row r="19" spans="1:15" s="11" customFormat="1">
-      <c r="C19" s="12"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>38</v>
-      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
@@ -1205,307 +1286,323 @@
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
     </row>
-    <row r="21" spans="1:15" ht="187">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:15" s="11" customFormat="1">
+      <c r="C21" s="12"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="1:15" ht="153">
+      <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="H23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="34">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="C24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+    </row>
+    <row r="37" spans="1:15" ht="68">
+      <c r="A37" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="34">
-      <c r="A22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="13" t="s">
+      <c r="B37" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-    </row>
-    <row r="25" spans="1:15" ht="68">
-      <c r="A25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="51">
-      <c r="A26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="17">
-      <c r="A27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:15" ht="17">
-      <c r="A30" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-    </row>
-    <row r="31" spans="1:15" ht="51">
-      <c r="A31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="17">
-      <c r="A32" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:15" ht="17">
-      <c r="A35" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-    </row>
-    <row r="36" spans="1:15" ht="17">
-      <c r="A36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="17">
-      <c r="A37" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="C37" s="4" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="51">
       <c r="A38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>36</v>
+      <c r="N38" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="17">
       <c r="A39" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
     </row>
     <row r="41" spans="1:15">
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" ht="17">
       <c r="A42" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
@@ -1514,10 +1611,159 @@
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
+      <c r="L42" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
+    </row>
+    <row r="43" spans="1:15" ht="51">
+      <c r="A43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="17">
+      <c r="A44" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:15" ht="17">
+      <c r="A47" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+    </row>
+    <row r="48" spans="1:15" ht="17">
+      <c r="A48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="17">
+      <c r="A49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="51">
+      <c r="A50" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="17">
+      <c r="A51" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="C53" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1534,8 +1780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2071"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1563,156 +1809,156 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1763,20 +2009,39 @@
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="B23"/>
-      <c r="C23"/>
+      <c r="A23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="A24" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="6">
+        <v>2</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="A25" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="6">
+        <v>3</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4">
@@ -1786,27 +2051,51 @@
       <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="6">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="A28" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="A29" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="6">
+        <v>3</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="A30" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="6">
+        <v>4</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4">
@@ -6929,20 +7218,20 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/excessmortality_metadataform.xlsx
+++ b/excessmortality_metadataform.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/GitHub/excessmortalityforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCC804E-2C33-D647-BE74-CBF2983CC355}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E686D6B-612E-5F4A-9224-A9E479F1C085}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="159">
   <si>
     <t>type</t>
   </si>
@@ -142,9 +142,6 @@
     <t>file</t>
   </si>
   <si>
-    <t>File should be in one of these file formats: **txt, pdf, doc, docx, rtf, zip**</t>
-  </si>
-  <si>
     <t>datasets</t>
   </si>
   <si>
@@ -175,55 +172,34 @@
     <t>dataset_hardcopy_file</t>
   </si>
   <si>
-    <t>dataset_hardcopy_upload</t>
-  </si>
-  <si>
     <t>datasets_2</t>
   </si>
   <si>
     <t>dataset_electronic_file</t>
   </si>
   <si>
-    <t>dataset_electronic_upload</t>
-  </si>
-  <si>
     <t>datasets_3</t>
   </si>
   <si>
     <t>dataset_website_url</t>
   </si>
   <si>
-    <t>dataset_website_download</t>
-  </si>
-  <si>
     <t>dataset_website_file</t>
   </si>
   <si>
-    <t>dataset_website_upload</t>
-  </si>
-  <si>
     <t>Hardcopy dataset format</t>
   </si>
   <si>
     <t>Upload the file for the scanned dataset.</t>
   </si>
   <si>
-    <t>Scanned dataset uploaded.</t>
-  </si>
-  <si>
     <t>Electronic dataset format</t>
   </si>
   <si>
     <t>Upload the file for the electronic format dataset.</t>
   </si>
   <si>
-    <t>Electronic dataset uploaded</t>
-  </si>
-  <si>
     <t>Website link/s to dataset</t>
-  </si>
-  <si>
-    <t>Download dataset from website/URL</t>
   </si>
   <si>
     <t>Upload the file for the electronic format dataset</t>
@@ -421,12 +397,6 @@
     <t>Describe the data structure</t>
   </si>
   <si>
-    <t>data_time</t>
-  </si>
-  <si>
-    <t>Data time interval</t>
-  </si>
-  <si>
     <t>select_one time</t>
   </si>
   <si>
@@ -473,6 +443,80 @@
   </si>
   <si>
     <t>Scan a sample page of the dataset using a scanning app on your smartphone or tablet  or through an external scanning device. Return to this form once scanning is completed.</t>
+  </si>
+  <si>
+    <t>select_one yes_no</t>
+  </si>
+  <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>dataset_open</t>
+  </si>
+  <si>
+    <t>Is the dataset openly available?</t>
+  </si>
+  <si>
+    <t>**Required**
+By *openly available* we mean is the data accessible to anyone either directly via an access portal or through an open request process. Data that is not openly available tends to be restricted for use by general public.</t>
+  </si>
+  <si>
+    <t>**Optional**
+File should be in one of these file formats: **txt, pdf, doc, docx, rtf, zip**</t>
+  </si>
+  <si>
+    <t>data_disaggregation</t>
+  </si>
+  <si>
+    <t>Data disaggregation</t>
+  </si>
+  <si>
+    <t>Don't know/not sure</t>
+  </si>
+  <si>
+    <t>data_gender</t>
+  </si>
+  <si>
+    <t>select_one location</t>
+  </si>
+  <si>
+    <t>data_location</t>
+  </si>
+  <si>
+    <t>Is the data disaggregated by gender?</t>
+  </si>
+  <si>
+    <t>data_age</t>
+  </si>
+  <si>
+    <t>Is the data disaggregated by age?</t>
+  </si>
+  <si>
+    <t>by level one administrative unit</t>
+  </si>
+  <si>
+    <t>by level two administrative unit</t>
+  </si>
+  <si>
+    <t>by level three administrative unit</t>
+  </si>
+  <si>
+    <t>by some subnational administrative unit level</t>
+  </si>
+  <si>
+    <t>Don’t know/not sure</t>
+  </si>
+  <si>
+    <t>no subnational location information</t>
+  </si>
+  <si>
+    <t>selected(${data_structure_description}, '3')</t>
   </si>
 </sst>
 </file>
@@ -922,10 +966,10 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="K23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
+      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -964,7 +1008,7 @@
         <v>14</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>15</v>
@@ -996,7 +1040,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1005,7 +1049,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="10"/>
       <c r="I2" s="9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -1016,40 +1060,40 @@
     </row>
     <row r="3" spans="1:15" s="11" customFormat="1" ht="58" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:15" s="11" customFormat="1" ht="34">
       <c r="A4" s="11" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:15" s="11" customFormat="1" ht="17">
       <c r="A5" s="11" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="N5" s="11" t="s">
         <v>24</v>
@@ -1082,7 +1126,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1091,7 +1135,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="10"/>
       <c r="I8" s="9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -1102,16 +1146,16 @@
     </row>
     <row r="9" spans="1:15" s="11" customFormat="1" ht="34">
       <c r="A9" s="11" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="N9" s="11" t="s">
         <v>24</v>
@@ -1145,7 +1189,7 @@
         <v>30</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="9"/>
@@ -1154,7 +1198,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
       <c r="I12" s="9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -1165,16 +1209,16 @@
     </row>
     <row r="13" spans="1:15" s="11" customFormat="1" ht="34">
       <c r="A13" s="11" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="N13" s="11" t="s">
         <v>24</v>
@@ -1185,13 +1229,13 @@
         <v>23</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="N14" s="11" t="s">
         <v>24</v>
@@ -1199,16 +1243,16 @@
     </row>
     <row r="15" spans="1:15" s="11" customFormat="1" ht="34">
       <c r="A15" s="11" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>104</v>
-      </c>
       <c r="H15" s="12" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="11" customFormat="1" ht="17">
@@ -1216,13 +1260,13 @@
         <v>23</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>105</v>
-      </c>
       <c r="H16" s="12" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="11" customFormat="1" ht="17">
@@ -1230,13 +1274,13 @@
         <v>23</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>106</v>
-      </c>
       <c r="H17" s="12" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="11" customFormat="1" ht="17">
@@ -1244,13 +1288,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>107</v>
-      </c>
       <c r="H18" s="12" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="11" customFormat="1" ht="17">
@@ -1258,13 +1302,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>108</v>
-      </c>
       <c r="H19" s="12" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="11" customFormat="1">
@@ -1295,10 +1339,10 @@
         <v>30</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -1306,7 +1350,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -1320,13 +1364,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="H23" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>24</v>
@@ -1337,246 +1381,255 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="H24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="L24" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="119">
+      <c r="A25" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="H26" s="3"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="9" t="s">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B28" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="34">
+      <c r="A30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="9" t="s">
+      <c r="B30" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="L30" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="H31" s="3"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="9" t="s">
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N33" s="3" t="s">
+      <c r="B33" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N34" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="9" t="s">
+    <row r="35" spans="1:15">
+      <c r="A35" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-    </row>
-    <row r="37" spans="1:15" ht="68">
-      <c r="A37" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="51">
-      <c r="A38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="17">
-      <c r="A39" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
@@ -1585,73 +1638,73 @@
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
+      <c r="L40" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
     </row>
-    <row r="41" spans="1:15">
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="1:15" ht="17">
-      <c r="A42" s="9" t="s">
+    <row r="41" spans="1:15" ht="68">
+      <c r="A41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="85">
+      <c r="A42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:15" ht="17">
+      <c r="A45" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-    </row>
-    <row r="43" spans="1:15" ht="51">
-      <c r="A43" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="17">
-      <c r="A44" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="10"/>
+      <c r="B45" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
@@ -1660,24 +1713,33 @@
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
+      <c r="L45" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
     </row>
-    <row r="46" spans="1:15">
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="1:15" ht="17">
+    <row r="46" spans="1:15" ht="85">
+      <c r="A46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>61</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="10"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
@@ -1686,61 +1748,65 @@
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
-      <c r="L47" s="9" t="s">
-        <v>69</v>
-      </c>
+      <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
     </row>
-    <row r="48" spans="1:15" ht="17">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:15">
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="1:15" ht="17">
+      <c r="A49" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+    </row>
+    <row r="50" spans="1:15" ht="17">
+      <c r="A50" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N48" s="3" t="s">
+      <c r="B50" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N50" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="17">
-      <c r="A49" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="51">
-      <c r="A50" s="3" t="s">
+    <row r="51" spans="1:15" ht="85">
+      <c r="A51" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="17">
-      <c r="A51" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="B51" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -1778,10 +1844,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D2071"/>
+  <dimension ref="A1:D2072"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1809,156 +1875,156 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2010,37 +2076,37 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B24" s="6">
         <v>2</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B25" s="6">
         <v>3</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D25" s="6"/>
     </row>
@@ -2052,56 +2118,62 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B27" s="6">
         <v>1</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B28" s="6">
         <v>2</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B29" s="6">
         <v>3</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B30" s="6">
         <v>4</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
+      <c r="A31" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="6">
+        <v>5</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4">
@@ -2111,21 +2183,39 @@
       <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+      <c r="A33" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="6">
+        <v>1</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
+      <c r="A34" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" s="6">
+        <v>2</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
+      <c r="A35" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="6">
+        <v>3</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:4">
@@ -2135,39 +2225,75 @@
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+      <c r="A37" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="6">
+        <v>1</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="A38" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="6">
+        <v>2</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
+      <c r="A39" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="6">
+        <v>3</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>154</v>
+      </c>
       <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
+      <c r="A40" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="6">
+        <v>4</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
+      <c r="A41" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="6">
+        <v>5</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
+      <c r="A42" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="6">
+        <v>6</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>156</v>
+      </c>
       <c r="D42" s="6"/>
     </row>
     <row r="43" spans="1:4">
@@ -2914,10 +3040,11 @@
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
     </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="6"/>
-      <c r="B168" s="6"/>
-      <c r="C168" s="6"/>
+    <row r="167" spans="1:4">
+      <c r="A167" s="6"/>
+      <c r="B167" s="6"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="6"/>
@@ -5139,9 +5266,10 @@
       <c r="B612" s="6"/>
       <c r="C612" s="6"/>
     </row>
-    <row r="614" spans="1:3">
-      <c r="B614"/>
-      <c r="C614"/>
+    <row r="613" spans="1:3">
+      <c r="A613" s="6"/>
+      <c r="B613" s="6"/>
+      <c r="C613" s="6"/>
     </row>
     <row r="615" spans="1:3">
       <c r="B615"/>
@@ -5614,7 +5742,6 @@
     <row r="732" spans="2:4">
       <c r="B732"/>
       <c r="C732"/>
-      <c r="D732" s="6"/>
     </row>
     <row r="733" spans="2:4">
       <c r="B733"/>
@@ -5689,6 +5816,7 @@
     <row r="747" spans="2:4">
       <c r="B747"/>
       <c r="C747"/>
+      <c r="D747" s="6"/>
     </row>
     <row r="748" spans="2:4">
       <c r="B748"/>
@@ -6118,9 +6246,9 @@
       <c r="B854"/>
       <c r="C854"/>
     </row>
-    <row r="856" spans="2:3">
-      <c r="B856"/>
-      <c r="C856"/>
+    <row r="855" spans="2:3">
+      <c r="B855"/>
+      <c r="C855"/>
     </row>
     <row r="857" spans="2:3">
       <c r="B857"/>
@@ -6593,7 +6721,6 @@
     <row r="974" spans="2:4">
       <c r="B974"/>
       <c r="C974"/>
-      <c r="D974" s="6"/>
     </row>
     <row r="975" spans="2:4">
       <c r="B975"/>
@@ -6668,6 +6795,7 @@
     <row r="989" spans="2:4">
       <c r="B989"/>
       <c r="C989"/>
+      <c r="D989" s="6"/>
     </row>
     <row r="990" spans="2:4">
       <c r="B990"/>
@@ -7097,8 +7225,9 @@
       <c r="B1096"/>
       <c r="C1096"/>
     </row>
-    <row r="1652" spans="3:3">
-      <c r="C1652" s="4"/>
+    <row r="1097" spans="2:3">
+      <c r="B1097"/>
+      <c r="C1097"/>
     </row>
     <row r="1653" spans="3:3">
       <c r="C1653" s="4"/>
@@ -7112,10 +7241,8 @@
     <row r="1656" spans="3:3">
       <c r="C1656" s="4"/>
     </row>
-    <row r="1712" spans="1:3">
-      <c r="A1712" s="6"/>
-      <c r="B1712" s="6"/>
-      <c r="C1712" s="5"/>
+    <row r="1657" spans="3:3">
+      <c r="C1657" s="4"/>
     </row>
     <row r="1713" spans="1:3">
       <c r="A1713" s="6"/>
@@ -7137,10 +7264,10 @@
       <c r="B1716" s="6"/>
       <c r="C1716" s="5"/>
     </row>
-    <row r="2067" spans="1:3">
-      <c r="A2067" s="6"/>
-      <c r="B2067" s="6"/>
-      <c r="C2067" s="5"/>
+    <row r="1717" spans="1:3">
+      <c r="A1717" s="6"/>
+      <c r="B1717" s="6"/>
+      <c r="C1717" s="5"/>
     </row>
     <row r="2068" spans="1:3">
       <c r="A2068" s="6"/>
@@ -7161,6 +7288,11 @@
       <c r="A2071" s="6"/>
       <c r="B2071" s="6"/>
       <c r="C2071" s="5"/>
+    </row>
+    <row r="2072" spans="1:3">
+      <c r="A2072" s="6"/>
+      <c r="B2072" s="6"/>
+      <c r="C2072" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7218,20 +7350,20 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/excessmortality_metadataform.xlsx
+++ b/excessmortality_metadataform.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/GitHub/excessmortalityforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E686D6B-612E-5F4A-9224-A9E479F1C085}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF29915E-EE2C-D749-B888-FB3A75D1F715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="196">
   <si>
     <t>type</t>
   </si>
@@ -517,6 +517,121 @@
   </si>
   <si>
     <t>selected(${data_structure_description}, '3')</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>data_process</t>
+  </si>
+  <si>
+    <t>Data mechanics</t>
+  </si>
+  <si>
+    <t>data_process_text</t>
+  </si>
+  <si>
+    <t>Describe the process/mechanics of how ${organisation_name} puts together the mortality data for ${country}.</t>
+  </si>
+  <si>
+    <t>data_software</t>
+  </si>
+  <si>
+    <t>Data tools</t>
+  </si>
+  <si>
+    <t>data_software_tools</t>
+  </si>
+  <si>
+    <t>Does ${organisation_name} use software/tool to curate mortality data?</t>
+  </si>
+  <si>
+    <t>data_software_tools_name</t>
+  </si>
+  <si>
+    <t>What is the name of the software/tool?</t>
+  </si>
+  <si>
+    <t>data_quality</t>
+  </si>
+  <si>
+    <t>Data quality</t>
+  </si>
+  <si>
+    <t>data_quality_done</t>
+  </si>
+  <si>
+    <t>Is there a process of data quality checks performed on the data?</t>
+  </si>
+  <si>
+    <t>data_quality_process</t>
+  </si>
+  <si>
+    <t>Describe the process/mechanics of how ${organisation_name} checks the quality of the mortality data for ${country}.</t>
+  </si>
+  <si>
+    <t>selected(${data_quality_done}, '1')</t>
+  </si>
+  <si>
+    <t>data_process_lag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How much time lag occurs between collection of mortality data from the reporting units to ${organisation_name}? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Required**
+This field expects an integer value. If no lag, enter 0. If lag unknown, enter 999. If the time lag is in days, then enter here the integer value of the number of days of lag and then in the next field enter the *days* as the unit.
+</t>
+  </si>
+  <si>
+    <t>select_one unit</t>
+  </si>
+  <si>
+    <t>data_process_lag_unit</t>
+  </si>
+  <si>
+    <t>Unit for time lag value in previous field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Required**
+If no lag or lag unknown, choose NA.
+</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>weeks</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>selected(${data_software_tools}, '1')</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
   </si>
 </sst>
 </file>
@@ -963,13 +1078,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K23" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="J34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomRight" activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1512,10 +1627,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -1530,15 +1645,15 @@
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" ht="51">
       <c r="A34" s="3" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>121</v>
+        <v>166</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>58</v>
@@ -1547,191 +1662,202 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" ht="170">
       <c r="A35" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>58</v>
+        <v>181</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" ht="68">
       <c r="A36" s="3" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>58</v>
+        <v>185</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="N36" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H37" s="3" t="s">
+      <c r="A37" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+    </row>
+    <row r="40" spans="1:15" ht="34">
+      <c r="A40" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H40" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="N40" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="9" t="s">
+    <row r="41" spans="1:15" ht="34">
+      <c r="A41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="9" t="s">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-    </row>
-    <row r="41" spans="1:15" ht="68">
-      <c r="A41" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="85">
-      <c r="A42" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="1:15" ht="17">
-      <c r="A45" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-    </row>
-    <row r="46" spans="1:15" ht="85">
+      <c r="B44" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+    </row>
+    <row r="45" spans="1:15" ht="34">
+      <c r="A45" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="51">
       <c r="A46" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>46</v>
+        <v>178</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>142</v>
+        <v>179</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -1739,12 +1865,12 @@
         <v>32</v>
       </c>
       <c r="B47" s="9"/>
-      <c r="C47" s="10"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
-      <c r="H47" s="10"/>
+      <c r="H47" s="9"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
@@ -1754,82 +1880,331 @@
       <c r="O47" s="9"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="C48" s="4"/>
-    </row>
-    <row r="49" spans="1:15" ht="17">
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>54</v>
+        <v>143</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
-      <c r="H49" s="10"/>
+      <c r="H49" s="9"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
-      <c r="L49" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
     </row>
-    <row r="50" spans="1:15" ht="17">
+    <row r="50" spans="1:15">
       <c r="A50" s="3" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>56</v>
+        <v>120</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="N50" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="85">
+    <row r="51" spans="1:15">
       <c r="A51" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+    </row>
+    <row r="57" spans="1:15" ht="68">
+      <c r="A57" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="85">
+      <c r="A58" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B58" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="1:15" ht="17">
+      <c r="A61" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+    </row>
+    <row r="62" spans="1:15" ht="85">
+      <c r="A62" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63" s="9"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="C64" s="4"/>
+    </row>
+    <row r="65" spans="1:15" ht="17">
+      <c r="A65" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+    </row>
+    <row r="66" spans="1:15" ht="17">
+      <c r="A66" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="85">
+      <c r="A67" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C67" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H67" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="9" t="s">
+    <row r="68" spans="1:15">
+      <c r="A68" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="C53" s="4"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="C69" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1844,16 +2219,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D2072"/>
+  <dimension ref="A1:D2078"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="23.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.83203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="33.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
@@ -1983,196 +2358,196 @@
         <v>107</v>
       </c>
     </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>82</v>
+        <v>161</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>83</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="3">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="3">
-        <v>2</v>
+        <v>57</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="3">
-        <v>3</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>29</v>
+        <v>57</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>3</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3">
         <v>4</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3" t="s">
+    <row r="28" spans="1:4">
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B29" s="3">
         <v>1</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="6">
-        <v>2</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="6">
-        <v>3</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B27" s="6">
-        <v>1</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" s="6">
-        <v>2</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B29" s="6">
-        <v>3</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B30" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B31" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="D31" s="6"/>
     </row>
@@ -2184,152 +2559,182 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="6" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B33" s="6">
         <v>1</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="6" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B34" s="6">
         <v>2</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="6" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B35" s="6">
         <v>3</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+      <c r="A36" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="6">
+        <v>4</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>126</v>
+      </c>
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="6" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="B37" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="6">
-        <v>2</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>153</v>
-      </c>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="6" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="B39" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="6" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="B40" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" s="6">
+        <v>3</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B43" s="6">
+        <v>1</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="6">
+        <v>2</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="6">
+        <v>3</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="6">
+        <v>4</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="6">
         <v>5</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="6" t="s">
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B48" s="6">
         <v>6</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C48" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
       <c r="D48" s="6"/>
     </row>
     <row r="49" spans="1:4">
@@ -2339,33 +2744,63 @@
       <c r="D49" s="6"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
+      <c r="A50" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B50" s="6">
+        <v>1</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>189</v>
+      </c>
       <c r="D50" s="6"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
+      <c r="A51" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B51" s="6">
+        <v>2</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>190</v>
+      </c>
       <c r="D51" s="6"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
+      <c r="A52" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B52" s="6">
+        <v>3</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>191</v>
+      </c>
       <c r="D52" s="6"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
+      <c r="A53" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B53" s="6">
+        <v>4</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>192</v>
+      </c>
       <c r="D53" s="6"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
+      <c r="A54" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="D54" s="6"/>
     </row>
     <row r="55" spans="1:4">
@@ -3046,35 +3481,41 @@
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
     </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="6"/>
+      <c r="B168" s="6"/>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+    </row>
     <row r="169" spans="1:4">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="6"/>
-      <c r="B174" s="6"/>
-      <c r="C174" s="6"/>
+      <c r="D173" s="6"/>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="6"/>
@@ -5271,29 +5712,35 @@
       <c r="B613" s="6"/>
       <c r="C613" s="6"/>
     </row>
+    <row r="614" spans="1:3">
+      <c r="A614" s="6"/>
+      <c r="B614" s="6"/>
+      <c r="C614" s="6"/>
+    </row>
     <row r="615" spans="1:3">
-      <c r="B615"/>
-      <c r="C615"/>
+      <c r="A615" s="6"/>
+      <c r="B615" s="6"/>
+      <c r="C615" s="6"/>
     </row>
     <row r="616" spans="1:3">
-      <c r="B616"/>
-      <c r="C616"/>
+      <c r="A616" s="6"/>
+      <c r="B616" s="6"/>
+      <c r="C616" s="6"/>
     </row>
     <row r="617" spans="1:3">
-      <c r="B617"/>
-      <c r="C617"/>
+      <c r="A617" s="6"/>
+      <c r="B617" s="6"/>
+      <c r="C617" s="6"/>
     </row>
     <row r="618" spans="1:3">
-      <c r="B618"/>
-      <c r="C618"/>
+      <c r="A618" s="6"/>
+      <c r="B618" s="6"/>
+      <c r="C618" s="6"/>
     </row>
     <row r="619" spans="1:3">
-      <c r="B619"/>
-      <c r="C619"/>
-    </row>
-    <row r="620" spans="1:3">
-      <c r="B620"/>
-      <c r="C620"/>
+      <c r="A619" s="6"/>
+      <c r="B619" s="6"/>
+      <c r="C619" s="6"/>
     </row>
     <row r="621" spans="1:3">
       <c r="B621"/>
@@ -5695,83 +6142,77 @@
       <c r="B720"/>
       <c r="C720"/>
     </row>
-    <row r="721" spans="2:4">
+    <row r="721" spans="2:3">
       <c r="B721"/>
       <c r="C721"/>
     </row>
-    <row r="722" spans="2:4">
+    <row r="722" spans="2:3">
       <c r="B722"/>
       <c r="C722"/>
     </row>
-    <row r="723" spans="2:4">
+    <row r="723" spans="2:3">
       <c r="B723"/>
       <c r="C723"/>
     </row>
-    <row r="724" spans="2:4">
+    <row r="724" spans="2:3">
       <c r="B724"/>
       <c r="C724"/>
     </row>
-    <row r="725" spans="2:4">
+    <row r="725" spans="2:3">
       <c r="B725"/>
       <c r="C725"/>
     </row>
-    <row r="726" spans="2:4">
+    <row r="726" spans="2:3">
       <c r="B726"/>
       <c r="C726"/>
     </row>
-    <row r="727" spans="2:4">
+    <row r="727" spans="2:3">
       <c r="B727"/>
       <c r="C727"/>
     </row>
-    <row r="728" spans="2:4">
+    <row r="728" spans="2:3">
       <c r="B728"/>
       <c r="C728"/>
     </row>
-    <row r="729" spans="2:4">
+    <row r="729" spans="2:3">
       <c r="B729"/>
       <c r="C729"/>
     </row>
-    <row r="730" spans="2:4">
+    <row r="730" spans="2:3">
       <c r="B730"/>
       <c r="C730"/>
     </row>
-    <row r="731" spans="2:4">
+    <row r="731" spans="2:3">
       <c r="B731"/>
       <c r="C731"/>
     </row>
-    <row r="732" spans="2:4">
+    <row r="732" spans="2:3">
       <c r="B732"/>
       <c r="C732"/>
     </row>
-    <row r="733" spans="2:4">
+    <row r="733" spans="2:3">
       <c r="B733"/>
       <c r="C733"/>
-      <c r="D733" s="6"/>
-    </row>
-    <row r="734" spans="2:4">
+    </row>
+    <row r="734" spans="2:3">
       <c r="B734"/>
       <c r="C734"/>
-      <c r="D734" s="6"/>
-    </row>
-    <row r="735" spans="2:4">
+    </row>
+    <row r="735" spans="2:3">
       <c r="B735"/>
       <c r="C735"/>
-      <c r="D735" s="6"/>
-    </row>
-    <row r="736" spans="2:4">
+    </row>
+    <row r="736" spans="2:3">
       <c r="B736"/>
       <c r="C736"/>
-      <c r="D736" s="6"/>
     </row>
     <row r="737" spans="2:4">
       <c r="B737"/>
       <c r="C737"/>
-      <c r="D737" s="6"/>
     </row>
     <row r="738" spans="2:4">
       <c r="B738"/>
       <c r="C738"/>
-      <c r="D738" s="6"/>
     </row>
     <row r="739" spans="2:4">
       <c r="B739"/>
@@ -5821,84 +6262,90 @@
     <row r="748" spans="2:4">
       <c r="B748"/>
       <c r="C748"/>
+      <c r="D748" s="6"/>
     </row>
     <row r="749" spans="2:4">
       <c r="B749"/>
       <c r="C749"/>
+      <c r="D749" s="6"/>
     </row>
     <row r="750" spans="2:4">
       <c r="B750"/>
       <c r="C750"/>
+      <c r="D750" s="6"/>
     </row>
     <row r="751" spans="2:4">
       <c r="B751"/>
       <c r="C751"/>
+      <c r="D751" s="6"/>
     </row>
     <row r="752" spans="2:4">
       <c r="B752"/>
       <c r="C752"/>
-    </row>
-    <row r="753" spans="2:3">
+      <c r="D752" s="6"/>
+    </row>
+    <row r="753" spans="2:4">
       <c r="B753"/>
       <c r="C753"/>
-    </row>
-    <row r="754" spans="2:3">
+      <c r="D753" s="6"/>
+    </row>
+    <row r="754" spans="2:4">
       <c r="B754"/>
       <c r="C754"/>
     </row>
-    <row r="755" spans="2:3">
+    <row r="755" spans="2:4">
       <c r="B755"/>
       <c r="C755"/>
     </row>
-    <row r="756" spans="2:3">
+    <row r="756" spans="2:4">
       <c r="B756"/>
       <c r="C756"/>
     </row>
-    <row r="757" spans="2:3">
+    <row r="757" spans="2:4">
       <c r="B757"/>
       <c r="C757"/>
     </row>
-    <row r="758" spans="2:3">
+    <row r="758" spans="2:4">
       <c r="B758"/>
       <c r="C758"/>
     </row>
-    <row r="759" spans="2:3">
+    <row r="759" spans="2:4">
       <c r="B759"/>
       <c r="C759"/>
     </row>
-    <row r="760" spans="2:3">
+    <row r="760" spans="2:4">
       <c r="B760"/>
       <c r="C760"/>
     </row>
-    <row r="761" spans="2:3">
+    <row r="761" spans="2:4">
       <c r="B761"/>
       <c r="C761"/>
     </row>
-    <row r="762" spans="2:3">
+    <row r="762" spans="2:4">
       <c r="B762"/>
       <c r="C762"/>
     </row>
-    <row r="763" spans="2:3">
+    <row r="763" spans="2:4">
       <c r="B763"/>
       <c r="C763"/>
     </row>
-    <row r="764" spans="2:3">
+    <row r="764" spans="2:4">
       <c r="B764"/>
       <c r="C764"/>
     </row>
-    <row r="765" spans="2:3">
+    <row r="765" spans="2:4">
       <c r="B765"/>
       <c r="C765"/>
     </row>
-    <row r="766" spans="2:3">
+    <row r="766" spans="2:4">
       <c r="B766"/>
       <c r="C766"/>
     </row>
-    <row r="767" spans="2:3">
+    <row r="767" spans="2:4">
       <c r="B767"/>
       <c r="C767"/>
     </row>
-    <row r="768" spans="2:3">
+    <row r="768" spans="2:4">
       <c r="B768"/>
       <c r="C768"/>
     </row>
@@ -6250,6 +6697,10 @@
       <c r="B855"/>
       <c r="C855"/>
     </row>
+    <row r="856" spans="2:3">
+      <c r="B856"/>
+      <c r="C856"/>
+    </row>
     <row r="857" spans="2:3">
       <c r="B857"/>
       <c r="C857"/>
@@ -6270,10 +6721,6 @@
       <c r="B861"/>
       <c r="C861"/>
     </row>
-    <row r="862" spans="2:3">
-      <c r="B862"/>
-      <c r="C862"/>
-    </row>
     <row r="863" spans="2:3">
       <c r="B863"/>
       <c r="C863"/>
@@ -6666,91 +7113,85 @@
       <c r="B960"/>
       <c r="C960"/>
     </row>
-    <row r="961" spans="2:4">
+    <row r="961" spans="2:3">
       <c r="B961"/>
       <c r="C961"/>
     </row>
-    <row r="962" spans="2:4">
+    <row r="962" spans="2:3">
       <c r="B962"/>
       <c r="C962"/>
     </row>
-    <row r="963" spans="2:4">
+    <row r="963" spans="2:3">
       <c r="B963"/>
       <c r="C963"/>
     </row>
-    <row r="964" spans="2:4">
+    <row r="964" spans="2:3">
       <c r="B964"/>
       <c r="C964"/>
     </row>
-    <row r="965" spans="2:4">
+    <row r="965" spans="2:3">
       <c r="B965"/>
       <c r="C965"/>
     </row>
-    <row r="966" spans="2:4">
+    <row r="966" spans="2:3">
       <c r="B966"/>
       <c r="C966"/>
     </row>
-    <row r="967" spans="2:4">
+    <row r="967" spans="2:3">
       <c r="B967"/>
       <c r="C967"/>
     </row>
-    <row r="968" spans="2:4">
+    <row r="968" spans="2:3">
       <c r="B968"/>
       <c r="C968"/>
     </row>
-    <row r="969" spans="2:4">
+    <row r="969" spans="2:3">
       <c r="B969"/>
       <c r="C969"/>
     </row>
-    <row r="970" spans="2:4">
+    <row r="970" spans="2:3">
       <c r="B970"/>
       <c r="C970"/>
     </row>
-    <row r="971" spans="2:4">
+    <row r="971" spans="2:3">
       <c r="B971"/>
       <c r="C971"/>
     </row>
-    <row r="972" spans="2:4">
+    <row r="972" spans="2:3">
       <c r="B972"/>
       <c r="C972"/>
     </row>
-    <row r="973" spans="2:4">
+    <row r="973" spans="2:3">
       <c r="B973"/>
       <c r="C973"/>
     </row>
-    <row r="974" spans="2:4">
+    <row r="974" spans="2:3">
       <c r="B974"/>
       <c r="C974"/>
     </row>
-    <row r="975" spans="2:4">
+    <row r="975" spans="2:3">
       <c r="B975"/>
       <c r="C975"/>
-      <c r="D975" s="6"/>
-    </row>
-    <row r="976" spans="2:4">
+    </row>
+    <row r="976" spans="2:3">
       <c r="B976"/>
       <c r="C976"/>
-      <c r="D976" s="6"/>
     </row>
     <row r="977" spans="2:4">
       <c r="B977"/>
       <c r="C977"/>
-      <c r="D977" s="6"/>
     </row>
     <row r="978" spans="2:4">
       <c r="B978"/>
       <c r="C978"/>
-      <c r="D978" s="6"/>
     </row>
     <row r="979" spans="2:4">
       <c r="B979"/>
       <c r="C979"/>
-      <c r="D979" s="6"/>
     </row>
     <row r="980" spans="2:4">
       <c r="B980"/>
       <c r="C980"/>
-      <c r="D980" s="6"/>
     </row>
     <row r="981" spans="2:4">
       <c r="B981"/>
@@ -6800,76 +7241,82 @@
     <row r="990" spans="2:4">
       <c r="B990"/>
       <c r="C990"/>
+      <c r="D990" s="6"/>
     </row>
     <row r="991" spans="2:4">
       <c r="B991"/>
       <c r="C991"/>
+      <c r="D991" s="6"/>
     </row>
     <row r="992" spans="2:4">
       <c r="B992"/>
       <c r="C992"/>
-    </row>
-    <row r="993" spans="2:3">
+      <c r="D992" s="6"/>
+    </row>
+    <row r="993" spans="2:4">
       <c r="B993"/>
       <c r="C993"/>
-    </row>
-    <row r="994" spans="2:3">
+      <c r="D993" s="6"/>
+    </row>
+    <row r="994" spans="2:4">
       <c r="B994"/>
       <c r="C994"/>
-    </row>
-    <row r="995" spans="2:3">
+      <c r="D994" s="6"/>
+    </row>
+    <row r="995" spans="2:4">
       <c r="B995"/>
       <c r="C995"/>
-    </row>
-    <row r="996" spans="2:3">
+      <c r="D995" s="6"/>
+    </row>
+    <row r="996" spans="2:4">
       <c r="B996"/>
       <c r="C996"/>
     </row>
-    <row r="997" spans="2:3">
+    <row r="997" spans="2:4">
       <c r="B997"/>
       <c r="C997"/>
     </row>
-    <row r="998" spans="2:3">
+    <row r="998" spans="2:4">
       <c r="B998"/>
       <c r="C998"/>
     </row>
-    <row r="999" spans="2:3">
+    <row r="999" spans="2:4">
       <c r="B999"/>
       <c r="C999"/>
     </row>
-    <row r="1000" spans="2:3">
+    <row r="1000" spans="2:4">
       <c r="B1000"/>
       <c r="C1000"/>
     </row>
-    <row r="1001" spans="2:3">
+    <row r="1001" spans="2:4">
       <c r="B1001"/>
       <c r="C1001"/>
     </row>
-    <row r="1002" spans="2:3">
+    <row r="1002" spans="2:4">
       <c r="B1002"/>
       <c r="C1002"/>
     </row>
-    <row r="1003" spans="2:3">
+    <row r="1003" spans="2:4">
       <c r="B1003"/>
       <c r="C1003"/>
     </row>
-    <row r="1004" spans="2:3">
+    <row r="1004" spans="2:4">
       <c r="B1004"/>
       <c r="C1004"/>
     </row>
-    <row r="1005" spans="2:3">
+    <row r="1005" spans="2:4">
       <c r="B1005"/>
       <c r="C1005"/>
     </row>
-    <row r="1006" spans="2:3">
+    <row r="1006" spans="2:4">
       <c r="B1006"/>
       <c r="C1006"/>
     </row>
-    <row r="1007" spans="2:3">
+    <row r="1007" spans="2:4">
       <c r="B1007"/>
       <c r="C1007"/>
     </row>
-    <row r="1008" spans="2:3">
+    <row r="1008" spans="2:4">
       <c r="B1008"/>
       <c r="C1008"/>
     </row>
@@ -7229,70 +7676,94 @@
       <c r="B1097"/>
       <c r="C1097"/>
     </row>
-    <row r="1653" spans="3:3">
-      <c r="C1653" s="4"/>
-    </row>
-    <row r="1654" spans="3:3">
-      <c r="C1654" s="4"/>
-    </row>
-    <row r="1655" spans="3:3">
-      <c r="C1655" s="4"/>
-    </row>
-    <row r="1656" spans="3:3">
-      <c r="C1656" s="4"/>
-    </row>
-    <row r="1657" spans="3:3">
-      <c r="C1657" s="4"/>
-    </row>
-    <row r="1713" spans="1:3">
-      <c r="A1713" s="6"/>
-      <c r="B1713" s="6"/>
-      <c r="C1713" s="5"/>
-    </row>
-    <row r="1714" spans="1:3">
-      <c r="A1714" s="6"/>
-      <c r="B1714" s="6"/>
-      <c r="C1714" s="5"/>
-    </row>
-    <row r="1715" spans="1:3">
-      <c r="A1715" s="6"/>
-      <c r="B1715" s="6"/>
-      <c r="C1715" s="5"/>
-    </row>
-    <row r="1716" spans="1:3">
-      <c r="A1716" s="6"/>
-      <c r="B1716" s="6"/>
-      <c r="C1716" s="5"/>
-    </row>
-    <row r="1717" spans="1:3">
-      <c r="A1717" s="6"/>
-      <c r="B1717" s="6"/>
-      <c r="C1717" s="5"/>
-    </row>
-    <row r="2068" spans="1:3">
-      <c r="A2068" s="6"/>
-      <c r="B2068" s="6"/>
-      <c r="C2068" s="5"/>
-    </row>
-    <row r="2069" spans="1:3">
-      <c r="A2069" s="6"/>
-      <c r="B2069" s="6"/>
-      <c r="C2069" s="5"/>
-    </row>
-    <row r="2070" spans="1:3">
-      <c r="A2070" s="6"/>
-      <c r="B2070" s="6"/>
-      <c r="C2070" s="5"/>
-    </row>
-    <row r="2071" spans="1:3">
-      <c r="A2071" s="6"/>
-      <c r="B2071" s="6"/>
-      <c r="C2071" s="5"/>
-    </row>
-    <row r="2072" spans="1:3">
-      <c r="A2072" s="6"/>
-      <c r="B2072" s="6"/>
-      <c r="C2072" s="5"/>
+    <row r="1098" spans="2:3">
+      <c r="B1098"/>
+      <c r="C1098"/>
+    </row>
+    <row r="1099" spans="2:3">
+      <c r="B1099"/>
+      <c r="C1099"/>
+    </row>
+    <row r="1100" spans="2:3">
+      <c r="B1100"/>
+      <c r="C1100"/>
+    </row>
+    <row r="1101" spans="2:3">
+      <c r="B1101"/>
+      <c r="C1101"/>
+    </row>
+    <row r="1102" spans="2:3">
+      <c r="B1102"/>
+      <c r="C1102"/>
+    </row>
+    <row r="1103" spans="2:3">
+      <c r="B1103"/>
+      <c r="C1103"/>
+    </row>
+    <row r="1659" spans="3:3">
+      <c r="C1659" s="4"/>
+    </row>
+    <row r="1660" spans="3:3">
+      <c r="C1660" s="4"/>
+    </row>
+    <row r="1661" spans="3:3">
+      <c r="C1661" s="4"/>
+    </row>
+    <row r="1662" spans="3:3">
+      <c r="C1662" s="4"/>
+    </row>
+    <row r="1663" spans="3:3">
+      <c r="C1663" s="4"/>
+    </row>
+    <row r="1719" spans="1:3">
+      <c r="A1719" s="6"/>
+      <c r="B1719" s="6"/>
+      <c r="C1719" s="5"/>
+    </row>
+    <row r="1720" spans="1:3">
+      <c r="A1720" s="6"/>
+      <c r="B1720" s="6"/>
+      <c r="C1720" s="5"/>
+    </row>
+    <row r="1721" spans="1:3">
+      <c r="A1721" s="6"/>
+      <c r="B1721" s="6"/>
+      <c r="C1721" s="5"/>
+    </row>
+    <row r="1722" spans="1:3">
+      <c r="A1722" s="6"/>
+      <c r="B1722" s="6"/>
+      <c r="C1722" s="5"/>
+    </row>
+    <row r="1723" spans="1:3">
+      <c r="A1723" s="6"/>
+      <c r="B1723" s="6"/>
+      <c r="C1723" s="5"/>
+    </row>
+    <row r="2074" spans="1:3">
+      <c r="A2074" s="6"/>
+      <c r="B2074" s="6"/>
+      <c r="C2074" s="5"/>
+    </row>
+    <row r="2075" spans="1:3">
+      <c r="A2075" s="6"/>
+      <c r="B2075" s="6"/>
+      <c r="C2075" s="5"/>
+    </row>
+    <row r="2076" spans="1:3">
+      <c r="A2076" s="6"/>
+      <c r="B2076" s="6"/>
+      <c r="C2076" s="5"/>
+    </row>
+    <row r="2077" spans="1:3">
+      <c r="A2077" s="6"/>
+      <c r="B2077" s="6"/>
+      <c r="C2077" s="5"/>
+    </row>
+    <row r="2078" spans="1:3">
+      <c r="A2078" s="6"/>
+      <c r="B2078" s="6"/>
+      <c r="C2078" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
